--- a/TodoLyPerfTest/test01/reports/report.xlsx
+++ b/TodoLyPerfTest/test01/reports/report.xlsx
@@ -4,15 +4,154 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="10 users" sheetId="1" r:id="rId1"/>
+    <sheet name="40 users" sheetId="2" r:id="rId2"/>
+    <sheet name="70 users" sheetId="3" r:id="rId3"/>
+    <sheet name="100 users" sheetId="4" r:id="rId4"/>
+    <sheet name="avg" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
+  <si>
+    <t># Samples</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Std. Dev.</t>
+  </si>
+  <si>
+    <t>Error %</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>KB/sec</t>
+  </si>
+  <si>
+    <t>Avg. Bytes</t>
+  </si>
+  <si>
+    <t>Create account</t>
+  </si>
+  <si>
+    <t>get token</t>
+  </si>
+  <si>
+    <t>Is authenticated</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Project B to be a sub­project from Project A </t>
+  </si>
+  <si>
+    <t>Create Item X under Project A C</t>
+  </si>
+  <si>
+    <t>Update Item X and set high priority to it</t>
+  </si>
+  <si>
+    <t>Create Item Y under Project A C</t>
+  </si>
+  <si>
+    <t>Update Item Y and set due date to 3 hours from now</t>
+  </si>
+  <si>
+    <t>Create Item Z under Project A C</t>
+  </si>
+  <si>
+    <t>Move Item Z to Project B</t>
+  </si>
+  <si>
+    <t>get items by project</t>
+  </si>
+  <si>
+    <t>Delete item</t>
+  </si>
+  <si>
+    <t>Get bin items</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>10 Users</t>
+  </si>
+  <si>
+    <t>Execution 1</t>
+  </si>
+  <si>
+    <t>Exec 2</t>
+  </si>
+  <si>
+    <t>TOTAL 1</t>
+  </si>
+  <si>
+    <t>TOTAL 2</t>
+  </si>
+  <si>
+    <t>40 Users</t>
+  </si>
+  <si>
+    <t>70 Users</t>
+  </si>
+  <si>
+    <t>Execution 2</t>
+  </si>
+  <si>
+    <t>100 Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Average </t>
+  </si>
+  <si>
+    <t>Exec 1</t>
+  </si>
+  <si>
+    <t>10 users</t>
+  </si>
+  <si>
+    <t>40 users</t>
+  </si>
+  <si>
+    <t>70 users</t>
+  </si>
+  <si>
+    <t>100 users</t>
+  </si>
+  <si>
+    <t>Total  10 users</t>
+  </si>
+  <si>
+    <t>Total 40 users</t>
+  </si>
+  <si>
+    <t>Total 70 users</t>
+  </si>
+  <si>
+    <t>Total 100 users</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +181,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,6 +217,2838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 users'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('10 users'!$B$22,'10 users'!$B$44)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('10 users'!$K$22,'10 users'!$K$44)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>794.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80763520"/>
+        <c:axId val="111732992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80763520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111732992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111732992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80763520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 users'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('100 users'!$B$20,'100 users'!$B$42)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 users'!$E$20,'100 users'!$E$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>947.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>956.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="66342912"/>
+        <c:axId val="66344448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66342912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66344448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66344448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66342912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 users'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('100 users'!$B$20,'100 users'!$B$42)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 users'!$D$20,'100 users'!$D$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="113529216"/>
+        <c:axId val="113530752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113529216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113530752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113530752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113529216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 users'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('100 users'!$B$20,'100 users'!$B$42)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 users'!$C$20,'100 users'!$C$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139784192"/>
+        <c:axId val="141309440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139784192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141309440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141309440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139784192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avg!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(avg!$C$7,avg!$C$15,avg!$C$22,avg!$C$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total  10 users</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total 40 users</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total 70 users</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total 100 users</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(avg!$E$7,avg!$E$15,avg!$E$22,avg!$E$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>423.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>495.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143952512"/>
+        <c:axId val="143974784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143952512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143974784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143974784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143952512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avg!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(avg!$C$7,avg!$C$15,avg!$C$22,avg!$C$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total  10 users</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total 40 users</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total 70 users</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total 100 users</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(avg!$F$7,avg!$F$15,avg!$F$22,avg!$F$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>794.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>803.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>951.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="142008320"/>
+        <c:axId val="142009856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="142008320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142009856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="142009856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142008320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avg!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(avg!$C$7,avg!$C$15,avg!$C$22,avg!$C$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total  10 users</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total 40 users</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total 70 users</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Total 100 users</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(avg!$D$7,avg!$D$15,avg!$D$22,avg!$D$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143478784"/>
+        <c:axId val="143480320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143478784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143480320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143480320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143478784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 users'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('10 users'!$B$22,'10 users'!$B$44)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('10 users'!$D$22,'10 users'!$D$44)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="112596096"/>
+        <c:axId val="112598016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112596096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112598016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112598016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112596096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 users'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('10 users'!$B$22,'10 users'!$B$44)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('10 users'!$C$22,'10 users'!$C$44)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="64039936"/>
+        <c:axId val="64046592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64039936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64046592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64046592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64039936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'40 users'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('40 users'!$B$21,'40 users'!$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('40 users'!$E$21,'40 users'!$E$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>796.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="62511360"/>
+        <c:axId val="62519168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62511360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62519168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62519168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62511360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'40 users'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('40 users'!$B$21,'40 users'!$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('40 users'!$D$21,'40 users'!$D$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="64060416"/>
+        <c:axId val="64635648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64060416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64635648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64635648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64060416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'40 users'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('40 users'!$B$21,'40 users'!$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('40 users'!$C$21,'40 users'!$C$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="66564480"/>
+        <c:axId val="111731840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66564480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111731840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111731840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66564480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'70 users'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('70 users'!$B$20,'70 users'!$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('70 users'!$E$20,'70 users'!$E$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>808.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>798.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="67117824"/>
+        <c:axId val="111690112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67117824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111690112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111690112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67117824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'70 users'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('70 users'!$B$20,'70 users'!$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('70 users'!$D$20,'70 users'!$D$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="67015040"/>
+        <c:axId val="67018112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67015040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67018112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67018112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67015040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'70 users'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>('70 users'!$B$20,'70 users'!$B$43)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TOTAL 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('70 users'!$C$20,'70 users'!$C$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139499008"/>
+        <c:axId val="139500544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139499008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139500544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139500544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139499008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60511</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>82923</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25854</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330654</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175532</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9756321" y="517071"/>
+          <a:ext cx="2871108" cy="2013858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The results about </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>average response size (Avg. bytes)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  for each number of users shows  a lineal increment  until  test with 70 , then the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>work flow  take  a major  size in Bytes for 100 users.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9670676" y="3709147"/>
+          <a:ext cx="2745442" cy="1770529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The response</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> time results shown  an  increment in its value as the number of  users grow for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>each work flow.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9637059" y="6824382"/>
+          <a:ext cx="2779059" cy="1826559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> graph shown the increment  in the number of users for each work flow</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,36 +3338,3075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="5" max="10" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>513</v>
+      </c>
+      <c r="E6" s="1">
+        <v>475</v>
+      </c>
+      <c r="F6" s="1">
+        <v>589</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45.99</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="1">
+        <v>763.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>294</v>
+      </c>
+      <c r="E7" s="1">
+        <v>245</v>
+      </c>
+      <c r="F7" s="1">
+        <v>468</v>
+      </c>
+      <c r="G7" s="1">
+        <v>87.14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K7" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>336</v>
+      </c>
+      <c r="E8" s="1">
+        <v>239</v>
+      </c>
+      <c r="F8" s="1">
+        <v>481</v>
+      </c>
+      <c r="G8" s="1">
+        <v>112.96</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>491</v>
+      </c>
+      <c r="E9" s="1">
+        <v>476</v>
+      </c>
+      <c r="F9" s="1">
+        <v>512</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11.66</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="1">
+        <v>857.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>507</v>
+      </c>
+      <c r="E10" s="1">
+        <v>465</v>
+      </c>
+      <c r="F10" s="1">
+        <v>565</v>
+      </c>
+      <c r="G10" s="1">
+        <v>35.72</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K10" s="1">
+        <v>856.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>655</v>
+      </c>
+      <c r="E11" s="1">
+        <v>477</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G11" s="1">
+        <v>322.48</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K11" s="1">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>490</v>
+      </c>
+      <c r="E12" s="1">
+        <v>466</v>
+      </c>
+      <c r="F12" s="1">
+        <v>517</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K12" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>488</v>
+      </c>
+      <c r="E13" s="1">
+        <v>480</v>
+      </c>
+      <c r="F13" s="1">
+        <v>496</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K13" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>497</v>
+      </c>
+      <c r="E14" s="1">
+        <v>482</v>
+      </c>
+      <c r="F14" s="1">
+        <v>503</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.77</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K14" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>492</v>
+      </c>
+      <c r="E15" s="1">
+        <v>475</v>
+      </c>
+      <c r="F15" s="1">
+        <v>508</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>510</v>
+      </c>
+      <c r="E16" s="1">
+        <v>476</v>
+      </c>
+      <c r="F16" s="1">
+        <v>579</v>
+      </c>
+      <c r="G16" s="1">
+        <v>35.61</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K16" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>514</v>
+      </c>
+      <c r="E17" s="1">
+        <v>483</v>
+      </c>
+      <c r="F17" s="1">
+        <v>572</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K17" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1055</v>
+      </c>
+      <c r="E18" s="1">
+        <v>259</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3524</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1237.95</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K18" s="1">
+        <v>655.20000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>376</v>
+      </c>
+      <c r="E19" s="1">
+        <v>250</v>
+      </c>
+      <c r="F19" s="1">
+        <v>537</v>
+      </c>
+      <c r="G19" s="1">
+        <v>120.06</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>585.20000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>358</v>
+      </c>
+      <c r="E20" s="1">
+        <v>257</v>
+      </c>
+      <c r="F20" s="1">
+        <v>510</v>
+      </c>
+      <c r="G20" s="1">
+        <v>115.78</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K20" s="1">
+        <v>709.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>366</v>
+      </c>
+      <c r="E21" s="1">
+        <v>264</v>
+      </c>
+      <c r="F21" s="1">
+        <v>539</v>
+      </c>
+      <c r="G21" s="1">
+        <v>119.13</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1">
+        <v>396</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3524</v>
+      </c>
+      <c r="G22" s="1">
+        <v>375.68</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K22" s="1">
+        <v>794.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1117</v>
+      </c>
+      <c r="E28" s="1">
+        <v>489</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3506</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1194.9100000000001</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K28" s="1">
+        <v>763.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>925</v>
+      </c>
+      <c r="E29" s="1">
+        <v>254</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3593</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1333.91</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K29" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>499</v>
+      </c>
+      <c r="E30" s="1">
+        <v>245</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1274</v>
+      </c>
+      <c r="G30" s="1">
+        <v>397.4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K30" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>482</v>
+      </c>
+      <c r="E31" s="1">
+        <v>462</v>
+      </c>
+      <c r="F31" s="1">
+        <v>499</v>
+      </c>
+      <c r="G31" s="1">
+        <v>12.29</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K31" s="1">
+        <v>857.2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>483</v>
+      </c>
+      <c r="E32" s="1">
+        <v>472</v>
+      </c>
+      <c r="F32" s="1">
+        <v>497</v>
+      </c>
+      <c r="G32" s="1">
+        <v>11.08</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K32" s="1">
+        <v>857.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>486</v>
+      </c>
+      <c r="E33" s="1">
+        <v>465</v>
+      </c>
+      <c r="F33" s="1">
+        <v>500</v>
+      </c>
+      <c r="G33" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K33" s="1">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>494</v>
+      </c>
+      <c r="E34" s="1">
+        <v>484</v>
+      </c>
+      <c r="F34" s="1">
+        <v>507</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.83</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K34" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>487</v>
+      </c>
+      <c r="E35" s="1">
+        <v>470</v>
+      </c>
+      <c r="F35" s="1">
+        <v>509</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K35" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>488</v>
+      </c>
+      <c r="E36" s="1">
+        <v>475</v>
+      </c>
+      <c r="F36" s="1">
+        <v>511</v>
+      </c>
+      <c r="G36" s="1">
+        <v>12.73</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K36" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>490</v>
+      </c>
+      <c r="E37" s="1">
+        <v>469</v>
+      </c>
+      <c r="F37" s="1">
+        <v>522</v>
+      </c>
+      <c r="G37" s="1">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K37" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>490</v>
+      </c>
+      <c r="E38" s="1">
+        <v>475</v>
+      </c>
+      <c r="F38" s="1">
+        <v>502</v>
+      </c>
+      <c r="G38" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K38" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>495</v>
+      </c>
+      <c r="E39" s="1">
+        <v>480</v>
+      </c>
+      <c r="F39" s="1">
+        <v>549</v>
+      </c>
+      <c r="G39" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K39" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>353</v>
+      </c>
+      <c r="E40" s="1">
+        <v>247</v>
+      </c>
+      <c r="F40" s="1">
+        <v>509</v>
+      </c>
+      <c r="G40" s="1">
+        <v>118.15</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K40" s="1">
+        <v>656.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>420</v>
+      </c>
+      <c r="E41" s="1">
+        <v>242</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1233</v>
+      </c>
+      <c r="G41" s="1">
+        <v>290.7</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>585.20000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>993</v>
+      </c>
+      <c r="E42" s="1">
+        <v>245</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3721</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1366.72</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K42" s="1">
+        <v>709.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>352</v>
+      </c>
+      <c r="E43" s="1">
+        <v>256</v>
+      </c>
+      <c r="F43" s="1">
+        <v>506</v>
+      </c>
+      <c r="G43" s="1">
+        <v>115.1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K43" s="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1">
+        <v>451</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3721</v>
+      </c>
+      <c r="G44" s="1">
+        <v>587.30999999999995</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="K44" s="1">
+        <v>794.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>518</v>
+      </c>
+      <c r="E5" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>310</v>
+      </c>
+      <c r="E6" s="1">
+        <v>579.29999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>295</v>
+      </c>
+      <c r="E7" s="1">
+        <v>448.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>507</v>
+      </c>
+      <c r="E8" s="1">
+        <v>857.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>530</v>
+      </c>
+      <c r="E9" s="1">
+        <v>857.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1">
+        <v>513</v>
+      </c>
+      <c r="E10" s="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>527</v>
+      </c>
+      <c r="E11" s="1">
+        <v>971.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>200</v>
+      </c>
+      <c r="D12" s="1">
+        <v>555</v>
+      </c>
+      <c r="E12" s="1">
+        <v>972.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>584</v>
+      </c>
+      <c r="E13" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>200</v>
+      </c>
+      <c r="D14" s="1">
+        <v>575</v>
+      </c>
+      <c r="E14" s="1">
+        <v>971.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>200</v>
+      </c>
+      <c r="D15" s="1">
+        <v>506</v>
+      </c>
+      <c r="E15" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>505</v>
+      </c>
+      <c r="E16" s="1">
+        <v>972.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1">
+        <v>294</v>
+      </c>
+      <c r="E17" s="1">
+        <v>657.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>400</v>
+      </c>
+      <c r="D18" s="1">
+        <v>293</v>
+      </c>
+      <c r="E18" s="1">
+        <v>586.70000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>200</v>
+      </c>
+      <c r="D19" s="1">
+        <v>277</v>
+      </c>
+      <c r="E19" s="1">
+        <v>711.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>200</v>
+      </c>
+      <c r="D20" s="1">
+        <v>301</v>
+      </c>
+      <c r="E20" s="1">
+        <v>751.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D21" s="1">
+        <v>352</v>
+      </c>
+      <c r="E21" s="1">
+        <v>796.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>200</v>
+      </c>
+      <c r="D27" s="1">
+        <v>608</v>
+      </c>
+      <c r="E27" s="1">
+        <v>763.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>200</v>
+      </c>
+      <c r="D28" s="1">
+        <v>500</v>
+      </c>
+      <c r="E28" s="1">
+        <v>577.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>200</v>
+      </c>
+      <c r="D29" s="1">
+        <v>536</v>
+      </c>
+      <c r="E29" s="1">
+        <v>446.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>200</v>
+      </c>
+      <c r="D30" s="1">
+        <v>607</v>
+      </c>
+      <c r="E30" s="1">
+        <v>855.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>200</v>
+      </c>
+      <c r="D31" s="1">
+        <v>699</v>
+      </c>
+      <c r="E31" s="1">
+        <v>855.4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>200</v>
+      </c>
+      <c r="D32" s="1">
+        <v>605</v>
+      </c>
+      <c r="E32" s="1">
+        <v>858.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
+        <v>200</v>
+      </c>
+      <c r="D33" s="1">
+        <v>736</v>
+      </c>
+      <c r="E33" s="1">
+        <v>970.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1">
+        <v>670</v>
+      </c>
+      <c r="E34" s="1">
+        <v>970.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1">
+        <v>200</v>
+      </c>
+      <c r="D35" s="1">
+        <v>627</v>
+      </c>
+      <c r="E35" s="1">
+        <v>970.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1">
+        <v>200</v>
+      </c>
+      <c r="D36" s="1">
+        <v>663</v>
+      </c>
+      <c r="E36" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1">
+        <v>200</v>
+      </c>
+      <c r="D37" s="1">
+        <v>612</v>
+      </c>
+      <c r="E37" s="1">
+        <v>969.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>200</v>
+      </c>
+      <c r="D38" s="1">
+        <v>569</v>
+      </c>
+      <c r="E38" s="1">
+        <v>969.9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1">
+        <v>200</v>
+      </c>
+      <c r="D39" s="1">
+        <v>538</v>
+      </c>
+      <c r="E39" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1">
+        <v>400</v>
+      </c>
+      <c r="D40" s="1">
+        <v>521</v>
+      </c>
+      <c r="E40" s="1">
+        <v>584.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1">
+        <v>200</v>
+      </c>
+      <c r="D41" s="1">
+        <v>534</v>
+      </c>
+      <c r="E41" s="1">
+        <v>709.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>200</v>
+      </c>
+      <c r="D42" s="1">
+        <v>405</v>
+      </c>
+      <c r="E42" s="1">
+        <v>749.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D43" s="1">
+        <v>474</v>
+      </c>
+      <c r="E43" s="1">
+        <v>794.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>350</v>
+      </c>
+      <c r="D4">
+        <v>572</v>
+      </c>
+      <c r="E4">
+        <v>761.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>350</v>
+      </c>
+      <c r="D5">
+        <v>369</v>
+      </c>
+      <c r="E5">
+        <v>596.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>350</v>
+      </c>
+      <c r="D6">
+        <v>382</v>
+      </c>
+      <c r="E6">
+        <v>446.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>350</v>
+      </c>
+      <c r="D7">
+        <v>557</v>
+      </c>
+      <c r="E7">
+        <v>850.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>350</v>
+      </c>
+      <c r="D8">
+        <v>530</v>
+      </c>
+      <c r="E8">
+        <v>850.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <v>521</v>
+      </c>
+      <c r="E9">
+        <v>867.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>350</v>
+      </c>
+      <c r="D10">
+        <v>527</v>
+      </c>
+      <c r="E10">
+        <v>999.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>350</v>
+      </c>
+      <c r="D11">
+        <v>534</v>
+      </c>
+      <c r="E11">
+        <v>979.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>350</v>
+      </c>
+      <c r="D12">
+        <v>556</v>
+      </c>
+      <c r="E12">
+        <v>999.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>350</v>
+      </c>
+      <c r="D13">
+        <v>550</v>
+      </c>
+      <c r="E13">
+        <v>979.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>350</v>
+      </c>
+      <c r="D14">
+        <v>564</v>
+      </c>
+      <c r="E14">
+        <v>999.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>350</v>
+      </c>
+      <c r="D15">
+        <v>540</v>
+      </c>
+      <c r="E15">
+        <v>980.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>350</v>
+      </c>
+      <c r="D16">
+        <v>376</v>
+      </c>
+      <c r="E16">
+        <v>685.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>700</v>
+      </c>
+      <c r="D17">
+        <v>351</v>
+      </c>
+      <c r="E17">
+        <v>623.79999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>350</v>
+      </c>
+      <c r="D18">
+        <v>344</v>
+      </c>
+      <c r="E18">
+        <v>710.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>350</v>
+      </c>
+      <c r="D19">
+        <v>351</v>
+      </c>
+      <c r="E19">
+        <v>784.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>5950</v>
+      </c>
+      <c r="D20">
+        <v>469</v>
+      </c>
+      <c r="E20">
+        <v>808.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>350</v>
+      </c>
+      <c r="D27">
+        <v>550</v>
+      </c>
+      <c r="E27">
+        <v>760.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>350</v>
+      </c>
+      <c r="D28">
+        <v>493</v>
+      </c>
+      <c r="E28">
+        <v>584.79999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>350</v>
+      </c>
+      <c r="D29">
+        <v>470</v>
+      </c>
+      <c r="E29">
+        <v>444.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>350</v>
+      </c>
+      <c r="D30">
+        <v>527</v>
+      </c>
+      <c r="E30">
+        <v>850.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>350</v>
+      </c>
+      <c r="D31">
+        <v>560</v>
+      </c>
+      <c r="E31">
+        <v>850.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>350</v>
+      </c>
+      <c r="D32">
+        <v>555</v>
+      </c>
+      <c r="E32">
+        <v>862.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>350</v>
+      </c>
+      <c r="D33">
+        <v>531</v>
+      </c>
+      <c r="E33">
+        <v>983.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>350</v>
+      </c>
+      <c r="D34">
+        <v>539</v>
+      </c>
+      <c r="E34">
+        <v>973.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>350</v>
+      </c>
+      <c r="D35">
+        <v>554</v>
+      </c>
+      <c r="E35">
+        <v>983.6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>350</v>
+      </c>
+      <c r="D36">
+        <v>585</v>
+      </c>
+      <c r="E36">
+        <v>973.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>350</v>
+      </c>
+      <c r="D37">
+        <v>547</v>
+      </c>
+      <c r="E37">
+        <v>983.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>350</v>
+      </c>
+      <c r="D38">
+        <v>572</v>
+      </c>
+      <c r="E38">
+        <v>974.1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>350</v>
+      </c>
+      <c r="D39">
+        <v>474</v>
+      </c>
+      <c r="E39">
+        <v>673.7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>700</v>
+      </c>
+      <c r="D40">
+        <v>484</v>
+      </c>
+      <c r="E40">
+        <v>602.70000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>350</v>
+      </c>
+      <c r="D41">
+        <v>473</v>
+      </c>
+      <c r="E41">
+        <v>708.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>350</v>
+      </c>
+      <c r="D42">
+        <v>476</v>
+      </c>
+      <c r="E42">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>5950</v>
+      </c>
+      <c r="D43">
+        <v>522</v>
+      </c>
+      <c r="E43">
+        <v>798.7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1321</v>
+      </c>
+      <c r="E4" s="1">
+        <v>676.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="1">
+        <v>775.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1076</v>
+      </c>
+      <c r="E6" s="1">
+        <v>445.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1039</v>
+      </c>
+      <c r="E7" s="1">
+        <v>803.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1072</v>
+      </c>
+      <c r="E8" s="1">
+        <v>797.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>971</v>
+      </c>
+      <c r="E9" s="1">
+        <v>979.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>500</v>
+      </c>
+      <c r="D10" s="1">
+        <v>951</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1239.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>886</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>500</v>
+      </c>
+      <c r="D12" s="1">
+        <v>794</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1238.4000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>500</v>
+      </c>
+      <c r="D13" s="1">
+        <v>729</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1065.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>500</v>
+      </c>
+      <c r="D14" s="1">
+        <v>692</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1244.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>500</v>
+      </c>
+      <c r="D15" s="1">
+        <v>610</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1078.9000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>500</v>
+      </c>
+      <c r="D16" s="1">
+        <v>443</v>
+      </c>
+      <c r="E16" s="1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>461</v>
+      </c>
+      <c r="E17" s="1">
+        <v>941.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>500</v>
+      </c>
+      <c r="D18" s="1">
+        <v>461</v>
+      </c>
+      <c r="E18" s="1">
+        <v>706.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>500</v>
+      </c>
+      <c r="D19" s="1">
+        <v>488</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8500</v>
+      </c>
+      <c r="D20" s="1">
+        <v>809</v>
+      </c>
+      <c r="E20" s="1">
+        <v>947.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>500</v>
+      </c>
+      <c r="D26" s="1">
+        <v>656</v>
+      </c>
+      <c r="E26" s="1">
+        <v>728.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>500</v>
+      </c>
+      <c r="D27" s="1">
+        <v>534</v>
+      </c>
+      <c r="E27" s="1">
+        <v>719.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>500</v>
+      </c>
+      <c r="D28" s="1">
+        <v>475</v>
+      </c>
+      <c r="E28" s="1">
+        <v>446.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <v>500</v>
+      </c>
+      <c r="D29" s="1">
+        <v>617</v>
+      </c>
+      <c r="E29" s="1">
+        <v>806.9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>500</v>
+      </c>
+      <c r="D30" s="1">
+        <v>587</v>
+      </c>
+      <c r="E30" s="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>500</v>
+      </c>
+      <c r="D31" s="1">
+        <v>559</v>
+      </c>
+      <c r="E31" s="1">
+        <v>952.4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>500</v>
+      </c>
+      <c r="D32" s="1">
+        <v>556</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1276.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <v>500</v>
+      </c>
+      <c r="D33" s="1">
+        <v>543</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1060.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>500</v>
+      </c>
+      <c r="D34" s="1">
+        <v>582</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1282.0999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>500</v>
+      </c>
+      <c r="D35" s="1">
+        <v>556</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1061.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <v>500</v>
+      </c>
+      <c r="D36" s="1">
+        <v>560</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1293.9000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>500</v>
+      </c>
+      <c r="D37" s="1">
+        <v>561</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1062.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>500</v>
+      </c>
+      <c r="D38" s="1">
+        <v>383</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1001.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>382</v>
+      </c>
+      <c r="E39" s="1">
+        <v>975.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
+        <v>500</v>
+      </c>
+      <c r="D40" s="1">
+        <v>383</v>
+      </c>
+      <c r="E40" s="1">
+        <v>708.4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>500</v>
+      </c>
+      <c r="D41" s="1">
+        <v>407</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1104.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="D42" s="1">
+        <v>513</v>
+      </c>
+      <c r="E42" s="1">
+        <v>956.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>105</v>
+      </c>
+      <c r="E5" s="1">
+        <v>396</v>
+      </c>
+      <c r="F5" s="1">
+        <v>794.1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1">
+        <v>451</v>
+      </c>
+      <c r="F6" s="1">
+        <v>794.8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <f>AVERAGE(D5:D6)</f>
+        <v>105</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:F7" si="0">AVERAGE(E5:E6)</f>
+        <v>423.5</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>794.45</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>352</v>
+      </c>
+      <c r="F13" s="1">
+        <v>796.1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>474</v>
+      </c>
+      <c r="F14" s="1">
+        <v>794.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <f>AVERAGE(D13:D14)</f>
+        <v>4200</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15" si="1">AVERAGE(E13:E14)</f>
+        <v>413</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15" si="2">AVERAGE(F13:F14)</f>
+        <v>795.3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5950</v>
+      </c>
+      <c r="E20" s="1">
+        <v>469</v>
+      </c>
+      <c r="F20" s="1">
+        <v>808.2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5950</v>
+      </c>
+      <c r="E21" s="1">
+        <v>522</v>
+      </c>
+      <c r="F21" s="1">
+        <v>798.7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1">
+        <f>AVERAGE(D20:D21)</f>
+        <v>5950</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22" si="3">AVERAGE(E20:E21)</f>
+        <v>495.5</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22" si="4">AVERAGE(F20:F21)</f>
+        <v>803.45</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E27" s="1">
+        <v>809</v>
+      </c>
+      <c r="F27" s="1">
+        <v>947.4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E28" s="1">
+        <v>513</v>
+      </c>
+      <c r="F28" s="1">
+        <v>956.4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1">
+        <f>AVERAGE(D27:D28)</f>
+        <v>8500</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ref="E29" si="5">AVERAGE(E27:E28)</f>
+        <v>661</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29" si="6">AVERAGE(F27:F28)</f>
+        <v>951.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TodoLyPerfTest/test01/reports/report.xlsx
+++ b/TodoLyPerfTest/test01/reports/report.xlsx
@@ -234,7 +234,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -298,11 +297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80763520"/>
-        <c:axId val="111732992"/>
+        <c:axId val="138918912"/>
+        <c:axId val="43328256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80763520"/>
+        <c:axId val="138918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111732992"/>
+        <c:crossAx val="43328256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -319,7 +318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111732992"/>
+        <c:axId val="43328256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -330,14 +329,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80763520"/>
+        <c:crossAx val="138918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -367,7 +365,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -431,11 +428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66342912"/>
-        <c:axId val="66344448"/>
+        <c:axId val="44247296"/>
+        <c:axId val="44253184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66342912"/>
+        <c:axId val="44247296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66344448"/>
+        <c:crossAx val="44253184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -452,7 +449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66344448"/>
+        <c:axId val="44253184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,14 +460,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66342912"/>
+        <c:crossAx val="44247296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -515,7 +511,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -579,11 +574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113529216"/>
-        <c:axId val="113530752"/>
+        <c:axId val="44281856"/>
+        <c:axId val="44283392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113529216"/>
+        <c:axId val="44281856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113530752"/>
+        <c:crossAx val="44283392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -600,7 +595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113530752"/>
+        <c:axId val="44283392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,14 +606,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113529216"/>
+        <c:crossAx val="44281856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -648,7 +642,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -712,11 +705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139784192"/>
-        <c:axId val="141309440"/>
+        <c:axId val="44312064"/>
+        <c:axId val="44313600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139784192"/>
+        <c:axId val="44312064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141309440"/>
+        <c:crossAx val="44313600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141309440"/>
+        <c:axId val="44313600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,14 +737,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139784192"/>
+        <c:crossAx val="44312064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -872,11 +864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143952512"/>
-        <c:axId val="143974784"/>
+        <c:axId val="44326272"/>
+        <c:axId val="43852928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143952512"/>
+        <c:axId val="44326272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143974784"/>
+        <c:crossAx val="43852928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -893,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143974784"/>
+        <c:axId val="43852928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,7 +896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143952512"/>
+        <c:crossAx val="44326272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1017,11 +1009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142008320"/>
-        <c:axId val="142009856"/>
+        <c:axId val="43873408"/>
+        <c:axId val="43874944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142008320"/>
+        <c:axId val="43873408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142009856"/>
+        <c:crossAx val="43874944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1038,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142009856"/>
+        <c:axId val="43874944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142008320"/>
+        <c:crossAx val="43873408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,6 +1078,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t># Request sent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1162,11 +1169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143478784"/>
-        <c:axId val="143480320"/>
+        <c:axId val="43907712"/>
+        <c:axId val="44327296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143478784"/>
+        <c:axId val="43907712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143480320"/>
+        <c:crossAx val="44327296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143480320"/>
+        <c:axId val="44327296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143478784"/>
+        <c:crossAx val="43907712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1246,7 +1253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1310,11 +1316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112596096"/>
-        <c:axId val="112598016"/>
+        <c:axId val="43340544"/>
+        <c:axId val="43342080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112596096"/>
+        <c:axId val="43340544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112598016"/>
+        <c:crossAx val="43342080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112598016"/>
+        <c:axId val="43342080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,14 +1348,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112596096"/>
+        <c:crossAx val="43340544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1379,7 +1384,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1443,11 +1447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64039936"/>
-        <c:axId val="64046592"/>
+        <c:axId val="43370752"/>
+        <c:axId val="43380736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64039936"/>
+        <c:axId val="43370752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64046592"/>
+        <c:crossAx val="43380736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1464,7 +1468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64046592"/>
+        <c:axId val="43380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,14 +1479,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64039936"/>
+        <c:crossAx val="43370752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1512,7 +1515,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1576,11 +1578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="62511360"/>
-        <c:axId val="62519168"/>
+        <c:axId val="43286912"/>
+        <c:axId val="43288448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62511360"/>
+        <c:axId val="43286912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62519168"/>
+        <c:crossAx val="43288448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1597,7 +1599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62519168"/>
+        <c:axId val="43288448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,14 +1610,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62511360"/>
+        <c:crossAx val="43286912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1660,7 +1661,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1724,11 +1724,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64060416"/>
-        <c:axId val="64635648"/>
+        <c:axId val="43920768"/>
+        <c:axId val="43926656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64060416"/>
+        <c:axId val="43920768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64635648"/>
+        <c:crossAx val="43926656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1745,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64635648"/>
+        <c:axId val="43926656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,14 +1756,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64060416"/>
+        <c:crossAx val="43920768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1793,7 +1792,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1857,11 +1855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66564480"/>
-        <c:axId val="111731840"/>
+        <c:axId val="43941248"/>
+        <c:axId val="43947136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66564480"/>
+        <c:axId val="43941248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111731840"/>
+        <c:crossAx val="43947136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1878,7 +1876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111731840"/>
+        <c:axId val="43947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,14 +1887,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66564480"/>
+        <c:crossAx val="43941248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1926,7 +1923,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1990,11 +1986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67117824"/>
-        <c:axId val="111690112"/>
+        <c:axId val="43689088"/>
+        <c:axId val="43690624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67117824"/>
+        <c:axId val="43689088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111690112"/>
+        <c:crossAx val="43690624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2011,7 +2007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111690112"/>
+        <c:axId val="43690624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,14 +2018,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67117824"/>
+        <c:crossAx val="43689088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2074,7 +2069,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2138,11 +2132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67015040"/>
-        <c:axId val="67018112"/>
+        <c:axId val="43707008"/>
+        <c:axId val="137412992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67015040"/>
+        <c:axId val="43707008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67018112"/>
+        <c:crossAx val="137412992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2159,7 +2153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67018112"/>
+        <c:axId val="137412992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,14 +2164,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67015040"/>
+        <c:crossAx val="43707008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2207,7 +2200,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2271,11 +2263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139499008"/>
-        <c:axId val="139500544"/>
+        <c:axId val="43782528"/>
+        <c:axId val="43784064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139499008"/>
+        <c:axId val="43782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139500544"/>
+        <c:crossAx val="43784064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2292,7 +2284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139500544"/>
+        <c:axId val="43784064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,14 +2295,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139499008"/>
+        <c:crossAx val="43782528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2710,15 +2701,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25854</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99332</xdr:rowOff>
+      <xdr:colOff>39462</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>330654</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175532</xdr:rowOff>
+      <xdr:colOff>344262</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>93889</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2770,15 +2761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>138793</xdr:rowOff>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>24493</xdr:rowOff>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2807,7 +2798,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2818,7 +2809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9756321" y="517071"/>
-          <a:ext cx="2871108" cy="2013858"/>
+          <a:ext cx="2871108" cy="1632858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2900,16 +2891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>455438</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2918,8 +2909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9670676" y="3709147"/>
-          <a:ext cx="2745442" cy="1770529"/>
+          <a:off x="9572224" y="3246504"/>
+          <a:ext cx="2774258" cy="1189425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,16 +2972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>48025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>195303</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2999,8 +2990,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9637059" y="6824382"/>
-          <a:ext cx="2779059" cy="1826559"/>
+          <a:off x="9565821" y="6144025"/>
+          <a:ext cx="2807875" cy="1067761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3040,7 +3031,19 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> graph shown the increment  in the number of users for each work flow</a:t>
+            <a:t> graph shown the increment  in the number of requests for every numb of users in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> each work flow</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -6139,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
